--- a/requirements/Requirements Excel/Requirement_pred_speed.xlsx
+++ b/requirements/Requirements Excel/Requirement_pred_speed.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Robert Bartz\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Robert Bartz\Desktop\Robert Bartz\FH Kufstein\2. Semester\05_SE_ILV\Bird_Requirements\requirements\Requirements Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0052AD22-8F1D-4CE5-83AF-C42ED72715CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{803AC908-3537-4DF0-9D9D-30DF8FBF4190}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{02421E9F-6F91-4F88-92F9-C987603F6219}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>Use Case ID:</t>
   </si>
@@ -78,9 +78,6 @@
     <t>class: non-functional</t>
   </si>
   <si>
-    <t>?</t>
-  </si>
-  <si>
     <t xml:space="preserve">Desired prediction speed </t>
   </si>
   <si>
@@ -94,6 +91,15 @@
   </si>
   <si>
     <t>The application's desired bird classification speed shall not exceed 7 seconds from pushing the button to the final prediction. In all cases, the 10 seconds threshold needs to be avoided, where as much as 50% of users leave a website due to waiting time!</t>
+  </si>
+  <si>
+    <t>refactored classification algorithm</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -</t>
   </si>
 </sst>
 </file>
@@ -639,7 +645,7 @@
   <dimension ref="B1:E16"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -670,7 +676,7 @@
         <v>1</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D3" s="6"/>
       <c r="E3" s="5"/>
@@ -680,10 +686,10 @@
         <v>2</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E4" s="6"/>
     </row>
@@ -722,14 +728,16 @@
         <v>6</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="D8" s="17"/>
       <c r="E8" s="17"/>
     </row>
     <row r="9" spans="2:5" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="16"/>
-      <c r="C9" s="5"/>
+      <c r="C9" s="5" t="s">
+        <v>23</v>
+      </c>
       <c r="D9" s="18"/>
       <c r="E9" s="18"/>
     </row>
@@ -766,18 +774,18 @@
         <v>1</v>
       </c>
       <c r="C13" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D13" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D13" s="5" t="s">
-        <v>20</v>
-      </c>
       <c r="E13" s="5"/>
     </row>
     <row r="14" spans="2:5" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="19">
-        <v>2</v>
-      </c>
-      <c r="C14" s="21"/>
+      <c r="B14" s="19"/>
+      <c r="C14" s="21" t="s">
+        <v>24</v>
+      </c>
       <c r="D14" s="21"/>
       <c r="E14" s="13"/>
     </row>
